--- a/biology/Zoologie/Hespérie_pont-euxine/Hespérie_pont-euxine.xlsx
+++ b/biology/Zoologie/Hespérie_pont-euxine/Hespérie_pont-euxine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hesp%C3%A9rie_pont-euxine</t>
+          <t>Hespérie_pont-euxine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Spialia orbifer
 L’Hespérie pont-euxine (Spialia orbifer) est un insecte lépidoptère de la famille des Hesperiidae, de la sous-famille des Pyrginae, du genre Spialia.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hesp%C3%A9rie_pont-euxine</t>
+          <t>Hespérie_pont-euxine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,84 +524,89 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Spialia orbifer a été décrit par Jakob Hübner en 1823[1].
-Noms vernaculaires
-L'Hespérie pont-euxine ou hespérie orientale se nomme Hungarian Skipper en anglais[2].
-Sous-espèces
-Spialia orbifer orbifer; présent en Sicile, dans le sud-est de l'Europe, en Iran et dans le sud-ouest de la Sibérie.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Spialia orbifer a été décrit par Jakob Hübner en 1823.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Hespérie_pont-euxine</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hesp%C3%A9rie_pont-euxine</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Hespérie pont-euxine ou hespérie orientale se nomme Hungarian Skipper en anglais.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Hespérie_pont-euxine</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hesp%C3%A9rie_pont-euxine</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Spialia orbifer orbifer; présent en Sicile, dans le sud-est de l'Europe, en Iran et dans le sud-ouest de la Sibérie.
 Spialia orbifer carnea (Reverdin, 1927); présent en Afghanistan.
 Spialia orbifer hilaris (Staudinger, 1901); présent dans le moyen-orient, sud-est de la Turquie, Liban, Israël, Jordanie, nord de l'Irak et ouest de l'Iran.
 Spialia orbifer lugens (Staudinger, 1886); présent dans le nord-est de l'Iran et le sud de la Sibérie.
-Spialia orbifer pseudolugens P. Gorbunov, 1995; présent dans l'Altaï[1].</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Hesp%C3%A9rie_pont-euxine</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Hesp%C3%A9rie_pont-euxine</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Hespérie pont-euxine est un petit papillon au dessus de couleur marron, avec aux ailes antérieures et postérieures une frange marginale blanche entrecoupée et une ornementation de taches blanches en lignes parallèles à la marge[3].
-Le revers est beige clair avec des taches blanches.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Hesp%C3%A9rie_pont-euxine</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Hesp%C3%A9rie_pont-euxine</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Période de vol et hivernation
-L'Hespérie pont-euxine vole en deux génération de mi-avril à fin juin, puis de mi-juillet à fin août[3].
-Elle hiverne au stade de chenille[4].
-Plantes hôtes
-Les plantes hôtes de sa chenille sont des Sanguisorba, Sanguisorba officinalis et Sanguisorba minor, Rubus idaeusus et des Potentilla[1],[3].
-</t>
+Spialia orbifer pseudolugens P. Gorbunov, 1995; présent dans l'Altaï.</t>
         </is>
       </c>
     </row>
@@ -599,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Hesp%C3%A9rie_pont-euxine</t>
+          <t>Hespérie_pont-euxine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -614,18 +631,199 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Hespérie pont-euxine est un petit papillon au dessus de couleur marron, avec aux ailes antérieures et postérieures une frange marginale blanche entrecoupée et une ornementation de taches blanches en lignes parallèles à la marge.
+Le revers est beige clair avec des taches blanches.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hespérie_pont-euxine</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hesp%C3%A9rie_pont-euxine</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Hespérie pont-euxine vole en deux génération de mi-avril à fin juin, puis de mi-juillet à fin août.
+Elle hiverne au stade de chenille.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Hespérie_pont-euxine</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hesp%C3%A9rie_pont-euxine</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont des Sanguisorba, Sanguisorba officinalis et Sanguisorba minor, Rubus idaeusus et des Potentilla,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Hespérie_pont-euxine</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hesp%C3%A9rie_pont-euxine</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Hespérie pont-euxine est présente en Sicile, dans le sud-est de l'Europe, au moyen-orient, en Turquie, au Liban, en Israël, en Jordanie, en Irak et en Iran, en Asie dans le sud de la Sibérie, dans l'Altaï et en Asie centrale jusqu'en Corée[1],[3],[4].
-Biotope
-L'Hespérie pont-euxine réside sur les pentes rocheuses fleuries[3].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Hespérie pont-euxine est présente en Sicile, dans le sud-est de l'Europe, au moyen-orient, en Turquie, au Liban, en Israël, en Jordanie, en Irak et en Iran, en Asie dans le sud de la Sibérie, dans l'Altaï et en Asie centrale jusqu'en Corée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hespérie_pont-euxine</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hesp%C3%A9rie_pont-euxine</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Hespérie pont-euxine réside sur les pentes rocheuses fleuries.
 Sur les autres projets Wikimedia :
 Hespérie pont-euxine, sur Wikimedia CommonsHespérie pont-euxine, sur Wikispecies
-Protection
-Pas de statut de protection particulier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Hespérie_pont-euxine</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hesp%C3%A9rie_pont-euxine</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
